--- a/data/infant_childcare_facility/data.xlsx
+++ b/data/infant_childcare_facility/data.xlsx
@@ -454,7 +454,7 @@
         <v>134.05097</v>
       </c>
       <c r="D2" t="str">
-        <v>トビウメ小児科医院  付属病児保育室  「子どもの家」</v>
+        <v>トビウメ小児科医院  付属病児保育室  「こどもの家」</v>
       </c>
       <c r="E2" t="str">
         <v>高松市伏石町1352-2</v>
@@ -475,7 +475,7 @@
         <v>08:00</v>
       </c>
       <c r="K2" t="str">
-        <v>18:00</v>
+        <v>17:00</v>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -545,7 +545,7 @@
         <v>087-844-8156</v>
       </c>
       <c r="G4" t="str">
-        <v>http://wwwd.pikara.ne.jp/kobayasi/sukoyaka-01.html</v>
+        <v>https://koba-yashima-clinic.com/%e3%81%99%e3%81%93%e3%82%84%e3%81%8b%e3%83%ab%e3%83%bc%e3%83%a0</v>
       </c>
       <c r="H4" t="str">
         <v/>

--- a/data/infant_childcare_facility/data.xlsx
+++ b/data/infant_childcare_facility/data.xlsx
@@ -454,7 +454,7 @@
         <v>134.05097</v>
       </c>
       <c r="D2" t="str">
-        <v>トビウメ小児科医院  付属病児保育室  「こどもの家」</v>
+        <v>トビウメ小児科医院  付属病児保育室  「子どもの家」</v>
       </c>
       <c r="E2" t="str">
         <v>高松市伏石町1352-2</v>
@@ -592,7 +592,7 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <v>月火水木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="J5" t="str">
         <v>08:00</v>
@@ -601,7 +601,7 @@
         <v>18:30</v>
       </c>
       <c r="L5" t="str">
-        <v>日曜日は第2・4日曜日。月～金は8:00～18:30、土、第2・4日は8:00～17:30※日曜日は前日からの継続利用のみ</v>
+        <v>月～金は8:00～18:30、土は8:00～17:30</v>
       </c>
       <c r="M5" t="str">
         <v>2,000円（3,000円）※（　）内は、本市以外に住所を有する児童の利用料金</v>
@@ -674,7 +674,7 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <v>月火水木金土</v>
+        <v>月火水木金</v>
       </c>
       <c r="J7" t="str">
         <v>08:00</v>
@@ -683,10 +683,10 @@
         <v>18:00</v>
       </c>
       <c r="L7" t="str">
-        <v>月～金は8:00～18:00、土は8:00～12:30</v>
+        <v>月～金は8:00～18:00</v>
       </c>
       <c r="M7" t="str">
-        <v>月～金は2,000円（3,000円）、土は1,000円（1,500円）※（　）内は、本市以外に住所を有する児童の利用料金</v>
+        <v>月～金は2,000円（3,000円）※（　）内は、本市以外に住所を有する児童の利用料金</v>
       </c>
     </row>
   </sheetData>
